--- a/Team-Data/2013-14/2-26-2013-14.xlsx
+++ b/Team-Data/2013-14/2-26-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>0.456</v>
+        <v>0.464</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -684,7 +751,7 @@
         <v>37.7</v>
       </c>
       <c r="J2" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.459</v>
@@ -693,31 +760,31 @@
         <v>9.5</v>
       </c>
       <c r="M2" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="O2" t="n">
         <v>16.7</v>
       </c>
       <c r="P2" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q2" t="n">
         <v>0.779</v>
       </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="U2" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="V2" t="n">
         <v>15.4</v>
@@ -729,28 +796,28 @@
         <v>4.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB2" t="n">
         <v>101.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>18</v>
@@ -762,52 +829,52 @@
         <v>16</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
         <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AS2" t="n">
         <v>18</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
         <v>39</v>
       </c>
       <c r="G3" t="n">
-        <v>0.339</v>
+        <v>0.328</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L3" t="n">
         <v>6.4</v>
@@ -878,7 +945,7 @@
         <v>19.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.327</v>
+        <v>0.326</v>
       </c>
       <c r="O3" t="n">
         <v>16.2</v>
@@ -887,7 +954,7 @@
         <v>21.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
         <v>11.7</v>
@@ -899,16 +966,16 @@
         <v>43</v>
       </c>
       <c r="U3" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V3" t="n">
         <v>15.4</v>
       </c>
       <c r="W3" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
@@ -917,25 +984,25 @@
         <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.6</v>
+        <v>-3.9</v>
       </c>
       <c r="AD3" t="n">
         <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH3" t="n">
         <v>29</v>
@@ -947,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -965,10 +1032,10 @@
         <v>25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS3" t="n">
         <v>20</v>
@@ -986,10 +1053,10 @@
         <v>22</v>
       </c>
       <c r="AX3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -998,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="BB3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -1030,55 +1097,55 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="n">
         <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>0.473</v>
+        <v>0.481</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J4" t="n">
         <v>78.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
         <v>21.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.361</v>
+        <v>0.365</v>
       </c>
       <c r="O4" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P4" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R4" t="n">
         <v>9.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T4" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U4" t="n">
         <v>20.7</v>
@@ -1093,19 +1160,19 @@
         <v>4.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.8</v>
+        <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
         <v>29</v>
@@ -1114,13 +1181,13 @@
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1129,16 +1196,16 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM4" t="n">
         <v>14</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>8</v>
@@ -1147,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
@@ -1168,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1299,10 +1366,10 @@
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>27</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1332,13 +1399,13 @@
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS5" t="n">
         <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU5" t="n">
         <v>19</v>
@@ -1353,16 +1420,16 @@
         <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC5" t="n">
         <v>17</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -1394,22 +1461,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
         <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.544</v>
+        <v>0.536</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J6" t="n">
         <v>80.7</v>
@@ -1421,16 +1488,16 @@
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="N6" t="n">
         <v>0.341</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q6" t="n">
         <v>0.775</v>
@@ -1439,10 +1506,10 @@
         <v>12.1</v>
       </c>
       <c r="S6" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T6" t="n">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="U6" t="n">
         <v>22.3</v>
@@ -1460,19 +1527,19 @@
         <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1505,22 +1572,22 @@
         <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
         <v>11</v>
@@ -1532,7 +1599,7 @@
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1541,13 +1608,13 @@
         <v>5</v>
       </c>
       <c r="BA6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
         <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>0.39</v>
+        <v>0.379</v>
       </c>
       <c r="H7" t="n">
         <v>48.8</v>
@@ -1597,31 +1664,31 @@
         <v>85.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O7" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P7" t="n">
         <v>23.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.75</v>
+        <v>0.746</v>
       </c>
       <c r="R7" t="n">
         <v>12.8</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
         <v>44.6</v>
@@ -1630,34 +1697,34 @@
         <v>20.3</v>
       </c>
       <c r="V7" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y7" t="n">
         <v>5.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA7" t="n">
         <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.4</v>
+        <v>-4.7</v>
       </c>
       <c r="AD7" t="n">
         <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
         <v>22</v>
@@ -1669,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
@@ -1681,7 +1748,7 @@
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
@@ -1693,7 +1760,7 @@
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR7" t="n">
         <v>2</v>
@@ -1711,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1720,7 +1787,7 @@
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA7" t="n">
         <v>18</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
         <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.61</v>
+        <v>0.603</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1776,46 +1843,46 @@
         <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L8" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M8" t="n">
         <v>22.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
       <c r="O8" t="n">
         <v>17.1</v>
       </c>
       <c r="P8" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.803</v>
+        <v>0.801</v>
       </c>
       <c r="R8" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="S8" t="n">
         <v>30.4</v>
       </c>
       <c r="T8" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>4.2</v>
@@ -1824,16 +1891,16 @@
         <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AD8" t="n">
         <v>3</v>
@@ -1842,10 +1909,10 @@
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>29</v>
@@ -1854,10 +1921,10 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1866,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>17</v>
@@ -1875,13 +1942,13 @@
         <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
         <v>28</v>
@@ -1893,7 +1960,7 @@
         <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
         <v>24</v>
@@ -1905,7 +1972,7 @@
         <v>9</v>
       </c>
       <c r="BA8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-2.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
         <v>19</v>
@@ -2039,7 +2106,7 @@
         <v>6</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
         <v>9</v>
@@ -2078,7 +2145,7 @@
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>24</v>
@@ -2093,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -2122,55 +2189,55 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="n">
-        <v>0.397</v>
+        <v>0.404</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J10" t="n">
-        <v>86.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L10" t="n">
         <v>5.9</v>
       </c>
       <c r="M10" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.313</v>
+        <v>0.312</v>
       </c>
       <c r="O10" t="n">
         <v>17.1</v>
       </c>
       <c r="P10" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.664</v>
+        <v>0.662</v>
       </c>
       <c r="R10" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T10" t="n">
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="U10" t="n">
         <v>20.8</v>
@@ -2185,19 +2252,19 @@
         <v>5.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2215,19 +2282,19 @@
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
@@ -2245,10 +2312,10 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
         <v>21</v>
@@ -2257,7 +2324,7 @@
         <v>17</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX10" t="n">
         <v>10</v>
@@ -2275,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="n">
         <v>35</v>
       </c>
       <c r="F11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.603</v>
+        <v>0.614</v>
       </c>
       <c r="H11" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="J11" t="n">
         <v>85</v>
       </c>
       <c r="K11" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L11" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.377</v>
+        <v>0.379</v>
       </c>
       <c r="O11" t="n">
         <v>16.3</v>
@@ -2343,7 +2410,7 @@
         <v>21.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R11" t="n">
         <v>11.2</v>
@@ -2352,10 +2419,10 @@
         <v>34.6</v>
       </c>
       <c r="T11" t="n">
-        <v>45.8</v>
+        <v>45.9</v>
       </c>
       <c r="U11" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V11" t="n">
         <v>15.7</v>
@@ -2370,52 +2437,52 @@
         <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>103</v>
+        <v>103.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>7</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2451,13 +2518,13 @@
         <v>24</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -2486,43 +2553,43 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="n">
         <v>39</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.672</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J12" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L12" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M12" t="n">
         <v>25.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O12" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P12" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="Q12" t="n">
         <v>0.697</v>
@@ -2540,13 +2607,13 @@
         <v>20.7</v>
       </c>
       <c r="V12" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
         <v>7.4</v>
       </c>
       <c r="X12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
@@ -2558,25 +2625,25 @@
         <v>24.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.2</v>
+        <v>106.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2597,7 +2664,7 @@
         <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2624,13 +2691,13 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2776,7 +2843,7 @@
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
@@ -2785,10 +2852,10 @@
         <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS13" t="n">
         <v>1</v>
@@ -2803,7 +2870,7 @@
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
@@ -2812,13 +2879,13 @@
         <v>12</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC13" t="n">
         <v>1</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.661</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,34 +2935,34 @@
         <v>38.6</v>
       </c>
       <c r="J14" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="N14" t="n">
         <v>0.349</v>
       </c>
       <c r="O14" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="P14" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R14" t="n">
         <v>10.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T14" t="n">
         <v>42.9</v>
@@ -2907,10 +2974,10 @@
         <v>13.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y14" t="n">
         <v>3.4</v>
@@ -2919,19 +2986,19 @@
         <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
@@ -2943,7 +3010,7 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2958,10 +3025,10 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
@@ -2970,7 +3037,7 @@
         <v>24</v>
       </c>
       <c r="AR14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS14" t="n">
         <v>13</v>
@@ -2988,7 +3055,7 @@
         <v>9</v>
       </c>
       <c r="AX14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="n">
         <v>19</v>
       </c>
       <c r="F15" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,37 +3117,37 @@
         <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="K15" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M15" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.376</v>
+        <v>0.373</v>
       </c>
       <c r="O15" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P15" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R15" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S15" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T15" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U15" t="n">
         <v>23.2</v>
@@ -3092,13 +3159,13 @@
         <v>6.8</v>
       </c>
       <c r="X15" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA15" t="n">
         <v>19.2</v>
@@ -3113,13 +3180,13 @@
         <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
@@ -3131,10 +3198,10 @@
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
@@ -3143,22 +3210,22 @@
         <v>8</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU15" t="n">
         <v>9</v>
@@ -3173,7 +3240,7 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>10</v>
@@ -3185,7 +3252,7 @@
         <v>15</v>
       </c>
       <c r="BC15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" t="n">
         <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>0.571</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J16" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="K16" t="n">
         <v>0.456</v>
@@ -3253,19 +3320,19 @@
         <v>20.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R16" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S16" t="n">
         <v>31</v>
       </c>
       <c r="T16" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U16" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V16" t="n">
         <v>13.5</v>
@@ -3274,31 +3341,31 @@
         <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z16" t="n">
         <v>19.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF16" t="n">
         <v>11</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -3310,10 +3377,10 @@
         <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3355,7 +3422,7 @@
         <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>5.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
@@ -3507,7 +3574,7 @@
         <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3689,16 +3756,16 @@
         <v>16</v>
       </c>
       <c r="AO18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
         <v>27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS18" t="n">
         <v>29</v>
@@ -3716,7 +3783,7 @@
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>4</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
         <v>10</v>
@@ -3877,13 +3944,13 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT19" t="n">
         <v>4</v>
@@ -3892,10 +3959,10 @@
         <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="n">
-        <v>0.404</v>
+        <v>0.411</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,10 +4027,10 @@
         <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>83.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
         <v>6.1</v>
@@ -3972,16 +4039,16 @@
         <v>15.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.385</v>
+        <v>0.384</v>
       </c>
       <c r="O20" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P20" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.761</v>
+        <v>0.766</v>
       </c>
       <c r="R20" t="n">
         <v>12.1</v>
@@ -3990,16 +4057,16 @@
         <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U20" t="n">
         <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X20" t="n">
         <v>6.4</v>
@@ -4008,19 +4075,19 @@
         <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4038,7 +4105,7 @@
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
         <v>11</v>
@@ -4059,22 +4126,22 @@
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>11</v>
@@ -4092,10 +4159,10 @@
         <v>21</v>
       </c>
       <c r="BB20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4223,7 +4290,7 @@
         <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4241,16 +4308,16 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
       </c>
       <c r="AS21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT21" t="n">
         <v>27</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>26</v>
       </c>
       <c r="AU21" t="n">
         <v>25</v>
@@ -4265,19 +4332,19 @@
         <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
         <v>21</v>
       </c>
       <c r="BC21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="n">
         <v>43</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.741</v>
+        <v>0.754</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
@@ -4333,31 +4400,31 @@
         <v>7.4</v>
       </c>
       <c r="M22" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O22" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P22" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.802</v>
+        <v>0.803</v>
       </c>
       <c r="R22" t="n">
         <v>11</v>
       </c>
       <c r="S22" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T22" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U22" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V22" t="n">
         <v>15.8</v>
@@ -4372,16 +4439,16 @@
         <v>3.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA22" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB22" t="n">
         <v>104.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
@@ -4390,13 +4457,13 @@
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
         <v>5</v>
@@ -4405,7 +4472,7 @@
         <v>19</v>
       </c>
       <c r="AK22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL22" t="n">
         <v>17</v>
@@ -4420,19 +4487,19 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>17</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>14</v>
@@ -4447,16 +4514,16 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ22" t="n">
         <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -4488,67 +4555,67 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" t="n">
         <v>42</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>0.288</v>
       </c>
       <c r="H23" t="n">
         <v>48.8</v>
       </c>
       <c r="I23" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J23" t="n">
-        <v>83</v>
+        <v>82.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O23" t="n">
         <v>16.3</v>
       </c>
       <c r="P23" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R23" t="n">
         <v>9.4</v>
       </c>
       <c r="S23" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V23" t="n">
         <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y23" t="n">
         <v>5.8</v>
@@ -4560,10 +4627,10 @@
         <v>18.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.1</v>
+        <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4584,37 +4651,37 @@
         <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>19</v>
       </c>
       <c r="AM23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
         <v>24</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
@@ -4626,7 +4693,7 @@
         <v>15</v>
       </c>
       <c r="AX23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" t="n">
-        <v>0.259</v>
+        <v>0.263</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
       </c>
       <c r="I24" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J24" t="n">
-        <v>88.3</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L24" t="n">
         <v>6.8</v>
@@ -4700,19 +4767,19 @@
         <v>21.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.309</v>
+        <v>0.311</v>
       </c>
       <c r="O24" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P24" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q24" t="n">
         <v>0.715</v>
       </c>
       <c r="R24" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S24" t="n">
         <v>32.1</v>
@@ -4721,31 +4788,31 @@
         <v>44</v>
       </c>
       <c r="U24" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V24" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="W24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>4</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z24" t="n">
         <v>21.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.7</v>
+        <v>-10.6</v>
       </c>
       <c r="AD24" t="n">
         <v>6</v>
@@ -4754,7 +4821,7 @@
         <v>29</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG24" t="n">
         <v>29</v>
@@ -4769,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -4852,64 +4919,64 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" t="n">
         <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" t="n">
-        <v>0.579</v>
+        <v>0.589</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L25" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O25" t="n">
         <v>18.4</v>
       </c>
       <c r="P25" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.757</v>
+        <v>0.76</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T25" t="n">
         <v>43.5</v>
       </c>
       <c r="U25" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="V25" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W25" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
@@ -4924,37 +4991,37 @@
         <v>21.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.7</v>
+        <v>105</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
@@ -4966,7 +5033,7 @@
         <v>11</v>
       </c>
       <c r="AP25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ25" t="n">
         <v>15</v>
@@ -4990,7 +5057,7 @@
         <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
@@ -5002,7 +5069,7 @@
         <v>10</v>
       </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" t="n">
         <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="J26" t="n">
         <v>87.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L26" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M26" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.382</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
         <v>19.2</v>
@@ -5073,19 +5140,19 @@
         <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.824</v>
+        <v>0.822</v>
       </c>
       <c r="R26" t="n">
         <v>12.6</v>
       </c>
       <c r="S26" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T26" t="n">
-        <v>46.1</v>
+        <v>46</v>
       </c>
       <c r="U26" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V26" t="n">
         <v>13.7</v>
@@ -5097,7 +5164,7 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
         <v>19.3</v>
@@ -5106,16 +5173,16 @@
         <v>20.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.9</v>
+        <v>107.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5124,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5133,10 +5200,10 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM26" t="n">
         <v>4</v>
@@ -5148,7 +5215,7 @@
         <v>6</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5157,7 +5224,7 @@
         <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5166,16 +5233,16 @@
         <v>5</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
@@ -5187,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>25</v>
@@ -5306,13 +5373,13 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
         <v>17</v>
@@ -5333,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR27" t="n">
         <v>9</v>
@@ -5354,7 +5421,7 @@
         <v>18</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>23</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.719</v>
+        <v>0.714</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5419,37 +5486,37 @@
         <v>82.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.489</v>
+        <v>0.488</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M28" t="n">
         <v>20.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.389</v>
+        <v>0.388</v>
       </c>
       <c r="O28" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P28" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="R28" t="n">
         <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U28" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="V28" t="n">
         <v>14.8</v>
@@ -5464,19 +5531,19 @@
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA28" t="n">
         <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>104</v>
+        <v>103.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM28" t="n">
         <v>18</v>
@@ -5509,22 +5576,22 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP28" t="n">
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5533,10 +5600,10 @@
         <v>15</v>
       </c>
       <c r="AW28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
         <v>18</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5670,10 +5737,10 @@
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
         <v>20</v>
@@ -5688,7 +5755,7 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>7</v>
@@ -5697,7 +5764,7 @@
         <v>9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
         <v>10</v>
@@ -5715,7 +5782,7 @@
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" t="n">
         <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.368</v>
+        <v>0.357</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
       </c>
       <c r="I30" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J30" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L30" t="n">
         <v>6.6</v>
@@ -5792,7 +5859,7 @@
         <v>18.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O30" t="n">
         <v>16.5</v>
@@ -5801,19 +5868,19 @@
         <v>21.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R30" t="n">
         <v>10.9</v>
       </c>
       <c r="S30" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T30" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U30" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V30" t="n">
         <v>14.6</v>
@@ -5828,28 +5895,28 @@
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA30" t="n">
         <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-5.3</v>
+        <v>-5.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF30" t="n">
         <v>22</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
@@ -5861,7 +5928,7 @@
         <v>26</v>
       </c>
       <c r="AK30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
         <v>22</v>
@@ -5897,7 +5964,7 @@
         <v>13</v>
       </c>
       <c r="AW30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX30" t="n">
         <v>17</v>
@@ -5915,7 +5982,7 @@
         <v>27</v>
       </c>
       <c r="BC30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6040,7 +6107,7 @@
         <v>12</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
         <v>13</v>
@@ -6070,7 +6137,7 @@
         <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6079,7 +6146,7 @@
         <v>14</v>
       </c>
       <c r="AW31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX31" t="n">
         <v>16</v>
@@ -6097,7 +6164,7 @@
         <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-26-2013-14</t>
+          <t>2014-02-26</t>
         </is>
       </c>
     </row>
